--- a/일정계획표.xlsx
+++ b/일정계획표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gangjingu/Desktop/JG/아부지사업/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gangjingu/Desktop/JG/iot_cloud/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B2BE12-CB57-3246-B154-F2899984599D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51BCD8-3B48-5C4E-89C2-C98E16A986F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{4DD213C6-998D-0846-B87F-AAA2BF790EE8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{4DD213C6-998D-0846-B87F-AAA2BF790EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,13 +316,6 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -540,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,68 +561,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD943AA5-6188-2348-AC78-CA319580EA23}">
   <dimension ref="A2:AQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="B1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1098,242 +1097,242 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="19" thickBot="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>1</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>4</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>5</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>6</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>7</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>8</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>9</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>11</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="25"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="25"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="25"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="25"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="25"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="19" thickBot="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="9"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="9"/>
+      <c r="A28" s="28"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="9"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="9"/>
+      <c r="A30" s="28"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="9"/>
+      <c r="A31" s="28"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="9"/>
+      <c r="A32" s="28"/>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="9"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" s="9"/>
+      <c r="A34" s="28"/>
     </row>
     <row r="39" spans="1:43">
       <c r="A39" s="6"/>
@@ -1396,14 +1395,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE4B701-4CD2-6442-AF7E-78EFBDBB5096}">
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" style="28"/>
-    <col min="5" max="5" width="10.7109375" style="29"/>
+    <col min="4" max="4" width="10.7109375" style="26"/>
+    <col min="5" max="5" width="10.7109375" style="27"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
@@ -1445,67 +1444,68 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="26" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:16">
-      <c r="C4" s="9"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:16">
-      <c r="C5" s="9"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:16">
-      <c r="C6" s="9"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:16">
-      <c r="C7" s="9"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="C8" s="9"/>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="2:16">
-      <c r="C9" s="9"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="26" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:16">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:16">
-      <c r="C11" s="9"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:16">
-      <c r="C12" s="9"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1513,28 +1513,28 @@
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:16">
-      <c r="C14" s="9"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="C15" s="9"/>
-      <c r="D15" s="28" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="C16" s="9"/>
-      <c r="D16" s="28" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="26" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1561,47 +1561,47 @@
       <c r="C19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="26" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="26" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="26" t="s">
         <v>54</v>
       </c>
     </row>
